--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt6-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt6-Fzd7.xlsx
@@ -79,22 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Wnt6</t>
+  </si>
+  <si>
+    <t>Fzd7</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt6</t>
-  </si>
-  <si>
-    <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,13 +543,13 @@
         <v>0.01814366666666667</v>
       </c>
       <c r="H2">
-        <v>0.05443099999999999</v>
+        <v>0.054431</v>
       </c>
       <c r="I2">
-        <v>0.04058581789210396</v>
+        <v>0.06647005666275889</v>
       </c>
       <c r="J2">
-        <v>0.05770066593592513</v>
+        <v>0.06647005666275889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N2">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O2">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P2">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q2">
-        <v>0.02227830590555556</v>
+        <v>0.018824634764</v>
       </c>
       <c r="R2">
-        <v>0.20050475315</v>
+        <v>0.169421712876</v>
       </c>
       <c r="S2">
-        <v>0.002139332124705785</v>
+        <v>0.002769441795261741</v>
       </c>
       <c r="T2">
-        <v>0.003414575059349219</v>
+        <v>0.002919094072352288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,13 +605,13 @@
         <v>0.01814366666666667</v>
       </c>
       <c r="H3">
-        <v>0.05443099999999999</v>
+        <v>0.054431</v>
       </c>
       <c r="I3">
-        <v>0.04058581789210396</v>
+        <v>0.06647005666275889</v>
       </c>
       <c r="J3">
-        <v>0.05770066593592513</v>
+        <v>0.06647005666275889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>19.133219</v>
       </c>
       <c r="O3">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P3">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q3">
         <v>0.1157155825987778</v>
@@ -638,10 +638,10 @@
         <v>1.041440243389</v>
       </c>
       <c r="S3">
-        <v>0.01111188903824497</v>
+        <v>0.01702384002822597</v>
       </c>
       <c r="T3">
-        <v>0.01773561885696703</v>
+        <v>0.0179437569693973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,13 +667,13 @@
         <v>0.01814366666666667</v>
       </c>
       <c r="H4">
-        <v>0.05443099999999999</v>
+        <v>0.054431</v>
       </c>
       <c r="I4">
-        <v>0.04058581789210396</v>
+        <v>0.06647005666275889</v>
       </c>
       <c r="J4">
-        <v>0.05770066593592513</v>
+        <v>0.06647005666275889</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N4">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O4">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P4">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q4">
-        <v>0.08779827952422223</v>
+        <v>0.1132041302108889</v>
       </c>
       <c r="R4">
-        <v>0.790184515718</v>
+        <v>1.018837171898</v>
       </c>
       <c r="S4">
-        <v>0.008431057580245703</v>
+        <v>0.0166543602854832</v>
       </c>
       <c r="T4">
-        <v>0.01345675998830865</v>
+        <v>0.01755431165635987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,13 +729,13 @@
         <v>0.01814366666666667</v>
       </c>
       <c r="H5">
-        <v>0.05443099999999999</v>
+        <v>0.054431</v>
       </c>
       <c r="I5">
-        <v>0.04058581789210396</v>
+        <v>0.06647005666275889</v>
       </c>
       <c r="J5">
-        <v>0.05770066593592513</v>
+        <v>0.06647005666275889</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N5">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O5">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P5">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q5">
-        <v>0.1385428795703333</v>
+        <v>0.06948912749783333</v>
       </c>
       <c r="R5">
-        <v>0.8312572774219998</v>
+        <v>0.416934764987</v>
       </c>
       <c r="S5">
-        <v>0.01330393945439757</v>
+        <v>0.01022309842509152</v>
       </c>
       <c r="T5">
-        <v>0.01415622484153411</v>
+        <v>0.007183682542047739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,13 +791,13 @@
         <v>0.01814366666666667</v>
       </c>
       <c r="H6">
-        <v>0.05443099999999999</v>
+        <v>0.054431</v>
       </c>
       <c r="I6">
-        <v>0.04058581789210396</v>
+        <v>0.06647005666275889</v>
       </c>
       <c r="J6">
-        <v>0.05770066593592513</v>
+        <v>0.06647005666275889</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N6">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O6">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P6">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q6">
-        <v>0.05831240203533333</v>
+        <v>0.1345812341452222</v>
       </c>
       <c r="R6">
-        <v>0.5248116183179999</v>
+        <v>1.211231107307</v>
       </c>
       <c r="S6">
-        <v>0.005599599694509928</v>
+        <v>0.01979931612869645</v>
       </c>
       <c r="T6">
-        <v>0.008937487189766126</v>
+        <v>0.02086921142260168</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,19 +847,19 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3977995</v>
+        <v>0.10505</v>
       </c>
       <c r="H7">
-        <v>0.7955989999999999</v>
+        <v>0.31515</v>
       </c>
       <c r="I7">
-        <v>0.8898431811598174</v>
+        <v>0.3848549237983587</v>
       </c>
       <c r="J7">
-        <v>0.843390570042</v>
+        <v>0.3848549237983587</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N7">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O7">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P7">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q7">
-        <v>0.4884513760583333</v>
+        <v>0.1089927366</v>
       </c>
       <c r="R7">
-        <v>2.93070825635</v>
+        <v>0.9809346294</v>
       </c>
       <c r="S7">
-        <v>0.04690481065249025</v>
+        <v>0.0160347886641204</v>
       </c>
       <c r="T7">
-        <v>0.04990965631061673</v>
+        <v>0.01690126025430037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,19 +909,19 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.3977995</v>
+        <v>0.10505</v>
       </c>
       <c r="H8">
-        <v>0.7955989999999999</v>
+        <v>0.31515</v>
       </c>
       <c r="I8">
-        <v>0.8898431811598174</v>
+        <v>0.3848549237983587</v>
       </c>
       <c r="J8">
-        <v>0.843390570042</v>
+        <v>0.3848549237983587</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>19.133219</v>
       </c>
       <c r="O8">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P8">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q8">
-        <v>2.537061650530166</v>
+        <v>0.6699815519833332</v>
       </c>
       <c r="R8">
-        <v>15.222369903181</v>
+        <v>6.029833967849998</v>
       </c>
       <c r="S8">
-        <v>0.24362792729158</v>
+        <v>0.09856631671098116</v>
       </c>
       <c r="T8">
-        <v>0.2592353737205657</v>
+        <v>0.1038925430160306</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,25 +965,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.3977995</v>
+        <v>0.10505</v>
       </c>
       <c r="H9">
-        <v>0.7955989999999999</v>
+        <v>0.31515</v>
       </c>
       <c r="I9">
-        <v>0.8898431811598174</v>
+        <v>0.3848549237983587</v>
       </c>
       <c r="J9">
-        <v>0.843390570042</v>
+        <v>0.3848549237983587</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N9">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O9">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P9">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q9">
-        <v>1.924975383270334</v>
+        <v>0.6554404959666666</v>
       </c>
       <c r="R9">
-        <v>11.549852299622</v>
+        <v>5.8989644637</v>
       </c>
       <c r="S9">
-        <v>0.1848507554459564</v>
+        <v>0.0964270662668338</v>
       </c>
       <c r="T9">
-        <v>0.1966927815020554</v>
+        <v>0.1016376939336373</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3977995</v>
+        <v>0.10505</v>
       </c>
       <c r="H10">
-        <v>0.7955989999999999</v>
+        <v>0.31515</v>
       </c>
       <c r="I10">
-        <v>0.8898431811598174</v>
+        <v>0.3848549237983587</v>
       </c>
       <c r="J10">
-        <v>0.843390570042</v>
+        <v>0.3848549237983587</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N10">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O10">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P10">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q10">
-        <v>3.0375496438595</v>
+        <v>0.4023350394249999</v>
       </c>
       <c r="R10">
-        <v>12.150198575438</v>
+        <v>2.41401023655</v>
       </c>
       <c r="S10">
-        <v>0.2916885853460138</v>
+        <v>0.05919070876279315</v>
       </c>
       <c r="T10">
-        <v>0.2069166160404861</v>
+        <v>0.04159279736044432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,19 +1095,19 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.3977995</v>
+        <v>0.10505</v>
       </c>
       <c r="H11">
-        <v>0.7955989999999999</v>
+        <v>0.31515</v>
       </c>
       <c r="I11">
-        <v>0.8898431811598174</v>
+        <v>0.3848549237983587</v>
       </c>
       <c r="J11">
-        <v>0.843390570042</v>
+        <v>0.3848549237983587</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N11">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O11">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P11">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q11">
-        <v>1.278498155837</v>
+        <v>0.7792117716166667</v>
       </c>
       <c r="R11">
-        <v>7.670988935022</v>
+        <v>7.01290594455</v>
       </c>
       <c r="S11">
-        <v>0.122771102423777</v>
+        <v>0.1146360433936302</v>
       </c>
       <c r="T11">
-        <v>0.1306361424682762</v>
+        <v>0.1208306292339461</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.03110133333333333</v>
+        <v>0.1497663333333333</v>
       </c>
       <c r="H12">
-        <v>0.093304</v>
+        <v>0.449299</v>
       </c>
       <c r="I12">
-        <v>0.06957100094807862</v>
+        <v>0.5486750195388824</v>
       </c>
       <c r="J12">
-        <v>0.09890876402207491</v>
+        <v>0.5486750195388823</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N12">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O12">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P12">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q12">
-        <v>0.03818880884444444</v>
+        <v>0.155387363356</v>
       </c>
       <c r="R12">
-        <v>0.3436992796</v>
+        <v>1.398486270204</v>
       </c>
       <c r="S12">
-        <v>0.003667179448541247</v>
+        <v>0.02286027133746037</v>
       </c>
       <c r="T12">
-        <v>0.005853162928065248</v>
+        <v>0.02409557141360274</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.03110133333333333</v>
+        <v>0.1497663333333333</v>
       </c>
       <c r="H13">
-        <v>0.093304</v>
+        <v>0.449299</v>
       </c>
       <c r="I13">
-        <v>0.06957100094807862</v>
+        <v>0.5486750195388824</v>
       </c>
       <c r="J13">
-        <v>0.09890876402207491</v>
+        <v>0.5486750195388823</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.133219</v>
       </c>
       <c r="O13">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P13">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q13">
-        <v>0.1983562072862222</v>
+        <v>0.9551706848312221</v>
       </c>
       <c r="R13">
-        <v>1.785205865576</v>
+        <v>8.596536163480998</v>
       </c>
       <c r="S13">
-        <v>0.0190476694314712</v>
+        <v>0.1405227591049568</v>
       </c>
       <c r="T13">
-        <v>0.0304018699239487</v>
+        <v>0.1481161849422799</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,7 +1275,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.03110133333333333</v>
+        <v>0.1497663333333333</v>
       </c>
       <c r="H14">
-        <v>0.093304</v>
+        <v>0.449299</v>
       </c>
       <c r="I14">
-        <v>0.06957100094807862</v>
+        <v>0.5486750195388824</v>
       </c>
       <c r="J14">
-        <v>0.09890876402207491</v>
+        <v>0.5486750195388823</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N14">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O14">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P14">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q14">
-        <v>0.1505011973457778</v>
+        <v>0.9344399790491111</v>
       </c>
       <c r="R14">
-        <v>1.354510776112</v>
+        <v>8.409959811442</v>
       </c>
       <c r="S14">
-        <v>0.0144522679441356</v>
+        <v>0.1374729000368782</v>
       </c>
       <c r="T14">
-        <v>0.0230671774163464</v>
+        <v>0.1449015206939213</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,7 +1337,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.03110133333333333</v>
+        <v>0.1497663333333333</v>
       </c>
       <c r="H15">
-        <v>0.093304</v>
+        <v>0.449299</v>
       </c>
       <c r="I15">
-        <v>0.06957100094807862</v>
+        <v>0.5486750195388824</v>
       </c>
       <c r="J15">
-        <v>0.09890876402207491</v>
+        <v>0.5486750195388823</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N15">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O15">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P15">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q15">
-        <v>0.2374860802746666</v>
+        <v>0.5735958460371666</v>
       </c>
       <c r="R15">
-        <v>1.424916481648</v>
+        <v>3.441575076223</v>
       </c>
       <c r="S15">
-        <v>0.02280521700599127</v>
+        <v>0.08438624863212503</v>
       </c>
       <c r="T15">
-        <v>0.02426617924738658</v>
+        <v>0.05929748456687379</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.03110133333333333</v>
+        <v>0.1497663333333333</v>
       </c>
       <c r="H16">
-        <v>0.093304</v>
+        <v>0.449299</v>
       </c>
       <c r="I16">
-        <v>0.06957100094807862</v>
+        <v>0.5486750195388824</v>
       </c>
       <c r="J16">
-        <v>0.09890876402207491</v>
+        <v>0.5486750195388823</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N16">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O16">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P16">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q16">
-        <v>0.09995738383466667</v>
+        <v>1.110896619944778</v>
       </c>
       <c r="R16">
-        <v>0.899616454512</v>
+        <v>9.998069579503001</v>
       </c>
       <c r="S16">
-        <v>0.009598667117939306</v>
+        <v>0.163432840427462</v>
       </c>
       <c r="T16">
-        <v>0.01532037450632799</v>
+        <v>0.1722642579222045</v>
       </c>
     </row>
   </sheetData>
